--- a/Energy Consumption17.xlsx
+++ b/Energy Consumption17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.335983229622235</v>
+        <v>1.423522850589841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6849144687407857</v>
+        <v>0.8302617648498666</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.668057844548673</v>
+        <v>5.968883093905558</v>
       </c>
       <c r="C3" t="n">
-        <v>1.861967085233079</v>
+        <v>1.470559796438292</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.856136251068728</v>
+        <v>6.095961842122042</v>
       </c>
       <c r="C4" t="n">
-        <v>2.839285518812675</v>
+        <v>2.111374248392587</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.447942051905727</v>
+        <v>7.344006957089668</v>
       </c>
       <c r="C5" t="n">
-        <v>3.826467840982172</v>
+        <v>3.192062064218167</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.561713960516709</v>
+        <v>22.31850393937586</v>
       </c>
       <c r="C6" t="n">
-        <v>4.561007764344524</v>
+        <v>4.291894715285379</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.144817538495346</v>
+        <v>22.42980282779203</v>
       </c>
       <c r="C7" t="n">
-        <v>5.746191052923699</v>
+        <v>4.864982518383937</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.365828856875957</v>
+        <v>22.52937834687294</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69739010205248</v>
+        <v>5.504374693713213</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.29272043219503</v>
+        <v>25.44727074964677</v>
       </c>
       <c r="C9" t="n">
-        <v>8.202391868876449</v>
+        <v>6.491622296892825</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.57248019473299</v>
+        <v>36.90561329602991</v>
       </c>
       <c r="C10" t="n">
-        <v>9.420976780903816</v>
+        <v>7.10657234029987</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.58935372388775</v>
+        <v>37.0828934789233</v>
       </c>
       <c r="C11" t="n">
-        <v>10.58391985379859</v>
+        <v>8.034179602473252</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.07097554944997</v>
+        <v>37.33094886443832</v>
       </c>
       <c r="C12" t="n">
-        <v>11.57770246797006</v>
+        <v>8.757386027820331</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.22757765693605</v>
+        <v>40.74527899304967</v>
       </c>
       <c r="C13" t="n">
-        <v>12.53981549886888</v>
+        <v>9.782113728920043</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.55165689873028</v>
+        <v>40.84719295123948</v>
       </c>
       <c r="C14" t="n">
-        <v>13.32857975524296</v>
+        <v>10.61780568962529</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.64200402528837</v>
+        <v>41.62054932008182</v>
       </c>
       <c r="C15" t="n">
-        <v>14.35645486794678</v>
+        <v>11.22161393859134</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.16869333023912</v>
+        <v>45.28556612606147</v>
       </c>
       <c r="C16" t="n">
-        <v>15.34820567605927</v>
+        <v>11.9813987082552</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.33798425732999</v>
+        <v>45.40297664034774</v>
       </c>
       <c r="C17" t="n">
-        <v>16.29376216999799</v>
+        <v>12.63190730105172</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.85449985760508</v>
+        <v>48.61710607391728</v>
       </c>
       <c r="C18" t="n">
-        <v>17.17967318255501</v>
+        <v>13.32772715558021</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.23996085271291</v>
+        <v>48.78063400152516</v>
       </c>
       <c r="C19" t="n">
-        <v>18.53026315234365</v>
+        <v>13.96802483331814</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.56528958118477</v>
+        <v>49.1568393219704</v>
       </c>
       <c r="C20" t="n">
-        <v>19.37420827328789</v>
+        <v>14.8799630790671</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.39207581025845</v>
+        <v>50.39191069112326</v>
       </c>
       <c r="C21" t="n">
-        <v>20.65863201144898</v>
+        <v>15.59803809403138</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>33.58155289450962</v>
+        <v>53.89421236634761</v>
       </c>
       <c r="C22" t="n">
-        <v>21.92884402019995</v>
+        <v>16.22809532180113</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.37201153399243</v>
+        <v>54.65625629224003</v>
       </c>
       <c r="C23" t="n">
-        <v>22.71441835372811</v>
+        <v>16.99099167721097</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>34.44130438473665</v>
+        <v>58.34298347274057</v>
       </c>
       <c r="C24" t="n">
-        <v>23.59631102882127</v>
+        <v>17.66440783092691</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36.39369722780675</v>
+        <v>60.91248896361743</v>
       </c>
       <c r="C25" t="n">
-        <v>25.58310608674488</v>
+        <v>18.43661747137801</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>36.55751184354709</v>
+        <v>61.05818940988113</v>
       </c>
       <c r="C26" t="n">
-        <v>26.52189210882825</v>
+        <v>19.32416613057641</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>37.57251401196582</v>
+        <v>69.87793209286971</v>
       </c>
       <c r="C27" t="n">
-        <v>27.71431971020856</v>
+        <v>19.95358270658328</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44.18815871824246</v>
+        <v>70.83488873750169</v>
       </c>
       <c r="C28" t="n">
-        <v>29.05566163649066</v>
+        <v>21.04409945206961</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44.63449622770422</v>
+        <v>70.94668724739223</v>
       </c>
       <c r="C29" t="n">
-        <v>30.21455422858762</v>
+        <v>21.82968679275908</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>51.13666718740941</v>
+        <v>73.52741064037168</v>
       </c>
       <c r="C30" t="n">
-        <v>30.98686924033882</v>
+        <v>22.86744070181124</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>51.18935742674664</v>
+        <v>73.73533097880473</v>
       </c>
       <c r="C31" t="n">
-        <v>32.01926466848442</v>
+        <v>23.70042270763484</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>51.50663944291377</v>
+        <v>73.83384499078466</v>
       </c>
       <c r="C32" t="n">
-        <v>33.31197126936708</v>
+        <v>24.74223611538526</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>53.42205909730585</v>
+        <v>77.69661314831956</v>
       </c>
       <c r="C33" t="n">
-        <v>34.02607555538685</v>
+        <v>25.6499191420871</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53.50406994661365</v>
+        <v>80.45412447119324</v>
       </c>
       <c r="C34" t="n">
-        <v>35.0180881602152</v>
+        <v>26.25818656747703</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.65633943053797</v>
+        <v>81.76919904311684</v>
       </c>
       <c r="C35" t="n">
-        <v>36.10100496574402</v>
+        <v>27.5776653912243</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>58.05615567990382</v>
+        <v>81.89077394226412</v>
       </c>
       <c r="C36" t="n">
-        <v>37.43824256073945</v>
+        <v>28.23755829528423</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66.20491097863174</v>
+        <v>83.62350807397453</v>
       </c>
       <c r="C37" t="n">
-        <v>38.95377415349391</v>
+        <v>29.01647954120543</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.15424030715174</v>
+        <v>84.68035233131143</v>
       </c>
       <c r="C38" t="n">
-        <v>39.86461413081744</v>
+        <v>29.65464233423145</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>70.1220318382839</v>
+        <v>85.07040390259884</v>
       </c>
       <c r="C39" t="n">
-        <v>40.87331156498531</v>
+        <v>30.32738643002872</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>70.30046270206772</v>
+        <v>85.13876611458504</v>
       </c>
       <c r="C40" t="n">
-        <v>42.17325451455263</v>
+        <v>31.20025947355375</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>73.48383645263809</v>
+        <v>89.89092407201042</v>
       </c>
       <c r="C41" t="n">
-        <v>43.34493001795721</v>
+        <v>32.37393042856549</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>73.87480277633615</v>
+        <v>90.00250494270522</v>
       </c>
       <c r="C42" t="n">
-        <v>44.34304353015035</v>
+        <v>33.02547521722418</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>74.01240131411164</v>
+        <v>92.65043132407891</v>
       </c>
       <c r="C43" t="n">
-        <v>45.52569061807539</v>
+        <v>34.00416442283062</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>78.54903378942809</v>
+        <v>95.2126389533818</v>
       </c>
       <c r="C44" t="n">
-        <v>46.75098968007649</v>
+        <v>34.57169762468471</v>
       </c>
     </row>
     <row r="45">
@@ -923,54 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>78.88257327356969</v>
+        <v>95.37192918045898</v>
       </c>
       <c r="C45" t="n">
-        <v>47.83602032939449</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>87.10437440563059</v>
-      </c>
-      <c r="C46" t="n">
-        <v>48.54742774776261</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>95.91424714020826</v>
-      </c>
-      <c r="C47" t="n">
-        <v>49.48783680168182</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>96.05739423004982</v>
-      </c>
-      <c r="C48" t="n">
-        <v>50.55373126923939</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>97.78685410909337</v>
-      </c>
-      <c r="C49" t="n">
-        <v>51.279534572081</v>
+        <v>35.53405837206915</v>
       </c>
     </row>
   </sheetData>
